--- a/График работы.xlsx
+++ b/График работы.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FokinKV\PycharmProjects\grafik_pvz_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лара\PycharmProjects\grafic_pfz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72679BFE-16AE-4804-97A0-91390F83E692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,15 @@
     <sheet name="Ноябрь" sheetId="11" r:id="rId11"/>
     <sheet name="Декабрь" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -230,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm;@"/>
   </numFmts>
@@ -589,15 +598,12 @@
     <xf numFmtId="49" fontId="1" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -623,6 +629,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,10 +650,10 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист9"/>
   <dimension ref="B1:AH21"/>
   <sheetViews>
@@ -893,16 +902,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -910,8 +919,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="16"/>
@@ -947,11 +956,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1046,9 +1055,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -1143,8 +1152,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -1242,8 +1251,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -1339,8 +1348,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="17"/>
@@ -1438,8 +1447,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -1537,21 +1546,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="32" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="16"/>
@@ -1562,71 +1571,71 @@
       <c r="S10" s="16"/>
       <c r="T10" s="17"/>
     </row>
-    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="29" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="28"/>
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27"/>
       <c r="AE12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+    <row r="13" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="34" t="s">
         <v>23</v>
       </c>
@@ -1644,26 +1653,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v>3</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AH5)</f>
         <v>1</v>
       </c>
@@ -1674,26 +1683,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v>4</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AH6)</f>
         <v>0</v>
       </c>
@@ -1702,26 +1711,26 @@
       <c r="U15" s="12"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B7</f>
         <v>Маша</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v>5</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AH7)</f>
         <v>7</v>
       </c>
@@ -1730,26 +1739,26 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="4" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v>2</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AH8)</f>
         <v>7</v>
       </c>
@@ -1758,33 +1767,31 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="U18" s="10"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
       <c r="R21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="E10:K10"/>
     <mergeCell ref="U11:V12"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C6"/>
@@ -1808,6 +1815,8 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="E10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1815,23 +1824,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:AH25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -1839,8 +1848,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="16"/>
@@ -1876,11 +1885,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1975,9 +1984,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -2072,8 +2081,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -2111,8 +2120,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -2150,8 +2159,8 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="17"/>
@@ -2231,8 +2240,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -2272,8 +2281,8 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="17"/>
@@ -2319,21 +2328,21 @@
       </c>
       <c r="AH9" s="3"/>
     </row>
-    <row r="11" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="E11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="32" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="31" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="16"/>
@@ -2346,75 +2355,75 @@
       <c r="U11" s="16"/>
       <c r="V11" s="17"/>
     </row>
-    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="29" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="V12" s="24"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="27"/>
       <c r="AA13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28"/>
+    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="34" t="s">
         <v>23</v>
       </c>
@@ -2432,26 +2441,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D5:R5)</f>
         <v>1</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S5:AH5)</f>
         <v>0</v>
       </c>
@@ -2460,26 +2469,26 @@
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D6:R6)</f>
         <v>0</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S6:AH6)</f>
         <v>1</v>
       </c>
@@ -2488,26 +2497,26 @@
       <c r="U16" s="12"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="42" t="str">
         <f>B7</f>
         <v>Алена</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D7:R7)</f>
         <v>11</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S7:AH7)</f>
         <v>11</v>
       </c>
@@ -2516,26 +2525,26 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="M18" s="42" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D8:R8)</f>
         <v>2</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S8:AH8)</f>
         <v>0</v>
       </c>
@@ -2544,26 +2553,26 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="M19" s="42" t="str">
         <f>B9</f>
         <v>Ильдар</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D9:R9)</f>
         <v>1</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S9:AH9)</f>
         <v>4</v>
       </c>
@@ -2572,24 +2581,24 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R18:T18"/>
@@ -2607,8 +2616,6 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B13:C13"/>
@@ -2624,6 +2631,8 @@
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2631,23 +2640,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:AG25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="33" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="33" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -2655,8 +2664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="16"/>
@@ -2691,11 +2700,11 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2787,9 +2796,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -2881,8 +2890,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -2919,8 +2928,8 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -2959,8 +2968,8 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="17"/>
@@ -3027,8 +3036,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -3063,8 +3072,8 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="17"/>
@@ -3121,21 +3130,21 @@
       </c>
       <c r="AG9" s="3"/>
     </row>
-    <row r="11" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="E11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="32" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="31" t="s">
         <v>61</v>
       </c>
       <c r="N11" s="16"/>
@@ -3148,75 +3157,75 @@
       <c r="U11" s="16"/>
       <c r="V11" s="17"/>
     </row>
-    <row r="12" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="29" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="V12" s="24"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="27"/>
       <c r="AA13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28"/>
+    <row r="14" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="34" t="s">
         <v>23</v>
       </c>
@@ -3234,26 +3243,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D5:R5)</f>
         <v>1</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S5:AG5)</f>
         <v>0</v>
       </c>
@@ -3262,26 +3271,26 @@
       <c r="U15" s="7"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D6:R6)</f>
         <v>1</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S6:AG6)</f>
         <v>1</v>
       </c>
@@ -3290,26 +3299,26 @@
       <c r="U16" s="12"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="42" t="str">
         <f>B7</f>
         <v>Алена</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D7:R7)</f>
         <v>9</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S7:AG7)</f>
         <v>7</v>
       </c>
@@ -3318,26 +3327,26 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="M18" s="42" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D8:R8)</f>
         <v>0</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S8:AG8)</f>
         <v>0</v>
       </c>
@@ -3346,26 +3355,26 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="M19" s="42" t="str">
         <f>B9</f>
         <v>Ильдар</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D9:R9)</f>
         <v>4</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S9:AG9)</f>
         <v>7</v>
       </c>
@@ -3374,24 +3383,24 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R18:T18"/>
@@ -3410,7 +3419,6 @@
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:AG2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="O14:Q14"/>
@@ -3426,6 +3434,7 @@
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3433,25 +3442,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="33" width="5.7109375" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+    <col min="6" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="33" width="5.6640625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -3459,8 +3468,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="16"/>
@@ -3496,11 +3505,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3595,9 +3604,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -3692,8 +3701,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -3737,8 +3746,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -3782,8 +3791,8 @@
       </c>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="17"/>
@@ -3855,8 +3864,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -3892,8 +3901,8 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="17"/>
@@ -3949,21 +3958,21 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="11" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="E11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="32" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="31" t="s">
         <v>63</v>
       </c>
       <c r="N11" s="16"/>
@@ -3976,79 +3985,79 @@
       <c r="U11" s="16"/>
       <c r="V11" s="17"/>
     </row>
-    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="29" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="V12" s="24"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="27"/>
       <c r="AA13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28"/>
+      <c r="C14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="34" t="s">
         <v>23</v>
       </c>
@@ -4066,26 +4075,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUMIF(D5:R5,"=1")</f>
         <v>1</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v>1</v>
       </c>
@@ -4100,26 +4109,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUMIF(D6:R6,"=1")</f>
         <v>1</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v>1</v>
       </c>
@@ -4134,26 +4143,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="42" t="str">
         <f>B7</f>
         <v>Алена</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUMIF(D7:R7,"=1")</f>
         <v>7</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v>9</v>
       </c>
@@ -4168,26 +4177,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="M18" s="42" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUMIF(D8:R8,"=1")</f>
         <v>0</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v>0</v>
       </c>
@@ -4202,26 +4211,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="19" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="M19" s="42" t="str">
         <f>B9</f>
         <v>Ильдар</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUMIF(D9:R9,"=1")</f>
         <v>4</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v>4</v>
       </c>
@@ -4236,24 +4245,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="R18:T18"/>
@@ -4271,14 +4280,11 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="M11:V11"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="U12:V13"/>
@@ -4289,6 +4295,9 @@
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="M11:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4296,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист10"/>
   <dimension ref="B1:AF21"/>
   <sheetViews>
@@ -4304,16 +4313,16 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -4321,8 +4330,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="16"/>
@@ -4356,11 +4365,11 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="17"/>
     </row>
-    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4449,9 +4458,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -4540,8 +4549,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -4631,8 +4640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -4724,8 +4733,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="17"/>
@@ -4817,8 +4826,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -4910,102 +4919,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="40" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-    </row>
-    <row r="11" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+    </row>
+    <row r="11" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="29" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27"/>
       <c r="AA12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+    <row r="13" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="34" t="s">
         <v>23</v>
       </c>
@@ -5023,26 +5032,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v>1</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AF5)</f>
         <v>0</v>
       </c>
@@ -5055,26 +5064,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v>0</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AF6)</f>
         <v>0</v>
       </c>
@@ -5083,26 +5092,26 @@
       <c r="U15" s="12"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:32" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:32" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B7</f>
         <v>Дима</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v>5</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AF7)</f>
         <v>8</v>
       </c>
@@ -5111,26 +5120,26 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="4" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v>8</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AF8)</f>
         <v>6</v>
       </c>
@@ -5139,27 +5148,27 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="U18" s="10"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R21" s="10"/>
     </row>
   </sheetData>
@@ -5197,23 +5206,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AH21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -5221,8 +5230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="16"/>
@@ -5258,11 +5267,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5357,9 +5366,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -5454,8 +5463,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -5495,8 +5504,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -5534,8 +5543,8 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="17"/>
@@ -5595,8 +5604,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -5662,102 +5671,102 @@
       </c>
       <c r="AH8" s="3"/>
     </row>
-    <row r="10" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="40" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-    </row>
-    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+    </row>
+    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="29" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27"/>
       <c r="AA12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+    <row r="13" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="34" t="s">
         <v>23</v>
       </c>
@@ -5775,26 +5784,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v>0</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AH5)</f>
         <v>2</v>
       </c>
@@ -5807,26 +5816,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v>0</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AH6)</f>
         <v>1</v>
       </c>
@@ -5835,26 +5844,26 @@
       <c r="U15" s="12"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B7</f>
         <v>Дима</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v>7</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AH7)</f>
         <v>5</v>
       </c>
@@ -5863,26 +5872,26 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="4" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v>8</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AH8)</f>
         <v>7</v>
       </c>
@@ -5891,43 +5900,41 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="U18" s="10"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="O11:Q12"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="E10:K10"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="B3:C4"/>
     <mergeCell ref="M10:V10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
@@ -5942,6 +5949,8 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5949,23 +5958,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AG23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -5973,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="41" t="s">
         <v>35</v>
       </c>
@@ -6009,11 +6018,11 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6105,9 +6114,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -6199,8 +6208,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -6235,8 +6244,8 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -6275,8 +6284,8 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="17"/>
@@ -6311,8 +6320,8 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -6377,8 +6386,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="17"/>
@@ -6415,8 +6424,8 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="17"/>
@@ -6475,102 +6484,102 @@
       </c>
       <c r="AG10" s="3"/>
     </row>
-    <row r="12" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="E12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="40" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-    </row>
-    <row r="13" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+    </row>
+    <row r="13" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="29" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="23" t="s">
+      <c r="N13" s="24"/>
+      <c r="O13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="23" t="s">
+      <c r="P13" s="23"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
       <c r="U13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="25"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="28"/>
+      <c r="C14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="27"/>
       <c r="AA14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="28"/>
+    <row r="15" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="34" t="s">
         <v>23</v>
       </c>
@@ -6588,26 +6597,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f t="shared" ref="M16:M21" si="0">B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f t="shared" ref="O16:O21" si="1">SUM(D5:R5)</f>
         <v>0</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f t="shared" ref="R16:R21" si="2">SUM(S5:AG5)</f>
         <v>0</v>
       </c>
@@ -6616,26 +6625,26 @@
       <c r="U16" s="7"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Лариса</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6644,26 +6653,26 @@
       <c r="U17" s="12"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="M18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Маша</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6672,26 +6681,26 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="M19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Нурик</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -6700,26 +6709,26 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
       <c r="M20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Рома</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="15">
+      <c r="O20" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="15">
+      <c r="R20" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6728,26 +6737,26 @@
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
     </row>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
       <c r="M21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Амелия</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="15">
+      <c r="O21" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="15">
+      <c r="R21" s="18">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -6756,19 +6765,19 @@
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
       <c r="R23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="M12:V12"/>
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U13:V14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:AG2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B10:C10"/>
@@ -6785,15 +6794,15 @@
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="E12:K12"/>
     <mergeCell ref="R13:T14"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="O18:Q18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6801,23 +6810,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AH22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -6825,8 +6834,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="16"/>
@@ -6862,11 +6871,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -6961,9 +6970,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -7058,8 +7067,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -7097,8 +7106,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -7134,8 +7143,8 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="17"/>
@@ -7199,8 +7208,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="17"/>
@@ -7268,21 +7277,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="32" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="31" t="s">
         <v>41</v>
       </c>
       <c r="N10" s="16"/>
@@ -7295,75 +7304,75 @@
       <c r="U10" s="16"/>
       <c r="V10" s="17"/>
     </row>
-    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="29" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27"/>
       <c r="AA12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+    <row r="13" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="34" t="s">
         <v>23</v>
       </c>
@@ -7381,26 +7390,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v>1</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AG5)</f>
         <v>0</v>
       </c>
@@ -7409,26 +7418,26 @@
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v>0</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AG6)</f>
         <v>0</v>
       </c>
@@ -7437,26 +7446,26 @@
       <c r="U15" s="12"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B7</f>
         <v>Нурик</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v>6</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AH7)</f>
         <v>8</v>
       </c>
@@ -7465,26 +7474,26 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="4" t="str">
         <f>B8</f>
         <v>Амелия</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v>8</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AH8)</f>
         <v>8</v>
       </c>
@@ -7493,42 +7502,40 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="O11:Q12"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="E10:K10"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="B3:C4"/>
     <mergeCell ref="M10:V10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="B12:C12"/>
@@ -7543,6 +7550,8 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7550,23 +7559,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AG22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -7574,8 +7583,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="16"/>
@@ -7610,11 +7619,11 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7706,9 +7715,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -7800,8 +7809,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -7838,8 +7847,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -7886,8 +7895,8 @@
       </c>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="17"/>
@@ -7942,8 +7951,8 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
     </row>
-    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="17"/>
@@ -8006,21 +8015,21 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="32" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="31" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="16"/>
@@ -8033,75 +8042,75 @@
       <c r="U10" s="16"/>
       <c r="V10" s="17"/>
     </row>
-    <row r="11" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="29" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27"/>
       <c r="AA12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+    <row r="13" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="34" t="s">
         <v>23</v>
       </c>
@@ -8119,26 +8128,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v>0</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AG5)</f>
         <v>1</v>
       </c>
@@ -8149,26 +8158,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v>0</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AG6)</f>
         <v>6</v>
       </c>
@@ -8177,26 +8186,26 @@
       <c r="U15" s="12"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B7</f>
         <v>Нурик</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v>8</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AG7)</f>
         <v>2</v>
       </c>
@@ -8205,26 +8214,26 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="4" t="str">
         <f>B8</f>
         <v>Амелия</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v>7</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AG8)</f>
         <v>6</v>
       </c>
@@ -8233,28 +8242,28 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="B2:AG2"/>
@@ -8290,23 +8299,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AH25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -8314,8 +8323,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="16"/>
@@ -8351,11 +8360,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8450,9 +8459,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -8547,8 +8556,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -8590,8 +8599,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -8655,8 +8664,8 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="17"/>
@@ -8708,21 +8717,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="M9" s="32" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="M9" s="31" t="s">
         <v>48</v>
       </c>
       <c r="N9" s="16"/>
@@ -8735,75 +8744,75 @@
       <c r="U9" s="16"/>
       <c r="V9" s="17"/>
     </row>
-    <row r="10" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="20"/>
+      <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="29" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="23" t="s">
+      <c r="N10" s="24"/>
+      <c r="O10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="23" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
       <c r="U10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="25"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="V10" s="24"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="28"/>
+      <c r="C11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="27"/>
       <c r="AA11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="28"/>
+    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="27"/>
       <c r="O12" s="34" t="s">
         <v>23</v>
       </c>
@@ -8821,26 +8830,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
+    <row r="13" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
       <c r="M13" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="15">
+      <c r="O13" s="18">
         <f>SUM(D5:R5)</f>
         <v>1</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="15">
+      <c r="R13" s="18">
         <f>SUM(S5:AG5)</f>
         <v>2</v>
       </c>
@@ -8851,26 +8860,26 @@
       </c>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D6:R6)</f>
         <v>7</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S6:AG6)</f>
         <v>7</v>
       </c>
@@ -8879,26 +8888,26 @@
       <c r="U14" s="12"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B7</f>
         <v>Игорь</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D7:R7)</f>
         <v>0</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S7:AG7)</f>
         <v>7</v>
       </c>
@@ -8907,42 +8916,42 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="16" spans="2:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
       <c r="V25" t="s">
         <v>49</v>
       </c>
@@ -8959,6 +8968,9 @@
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="R12:T12"/>
     <mergeCell ref="B11:C11"/>
@@ -8966,11 +8978,8 @@
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="M10:N12"/>
     <mergeCell ref="U10:V11"/>
-    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="M9:V9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="O13:Q13"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8979,23 +8988,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:AH23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -9003,8 +9012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="16"/>
@@ -9040,11 +9049,11 @@
       <c r="AG2" s="16"/>
       <c r="AH2" s="17"/>
     </row>
-    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9139,9 +9148,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -9236,8 +9245,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -9279,8 +9288,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -9338,8 +9347,8 @@
       </c>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="17"/>
@@ -9377,8 +9386,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="17"/>
@@ -9444,8 +9453,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="17"/>
@@ -9487,21 +9496,21 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="11" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="E11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="32" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="31" t="s">
         <v>53</v>
       </c>
       <c r="N11" s="16"/>
@@ -9514,75 +9523,75 @@
       <c r="U11" s="16"/>
       <c r="V11" s="17"/>
     </row>
-    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="29" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23" t="s">
+      <c r="N12" s="24"/>
+      <c r="O12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="V12" s="24"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="27"/>
       <c r="AA13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28"/>
+    <row r="14" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
       <c r="O14" s="34" t="s">
         <v>23</v>
       </c>
@@ -9600,26 +9609,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D5:R5)</f>
         <v>1</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S5:AG5)</f>
         <v>2</v>
       </c>
@@ -9632,26 +9641,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:34" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D6:R6)</f>
         <v>7</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S6:AG6)</f>
         <v>4</v>
       </c>
@@ -9660,26 +9669,26 @@
       <c r="U16" s="12"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="42" t="str">
         <f>B7</f>
         <v>Игорь</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D7:R7)</f>
         <v>1</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S7:AG7)</f>
         <v>0</v>
       </c>
@@ -9688,26 +9697,26 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
       <c r="M18" s="42" t="str">
         <f>B8</f>
         <v>Алена</v>
       </c>
       <c r="N18" s="17"/>
-      <c r="O18" s="15">
+      <c r="O18" s="18">
         <f>SUM(D8:R8)</f>
         <v>5</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="15">
+      <c r="R18" s="18">
         <f>SUM(S8:AG8)</f>
         <v>9</v>
       </c>
@@ -9716,26 +9725,26 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="M19" s="42" t="str">
         <f>B9</f>
         <v>Снежанна</v>
       </c>
       <c r="N19" s="17"/>
-      <c r="O19" s="15">
+      <c r="O19" s="18">
         <f>SUM(D9:R9)</f>
         <v>3</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="15">
+      <c r="R19" s="18">
         <f>SUM(S9:AG9)</f>
         <v>0</v>
       </c>
@@ -9744,18 +9753,18 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M23" t="s">
         <v>22</v>
       </c>
@@ -9778,12 +9787,6 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="E11:K11"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="U12:V13"/>
@@ -9794,6 +9797,12 @@
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9801,23 +9810,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AG24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="34" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="34" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>0</v>
       </c>
@@ -9825,8 +9834,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="16"/>
@@ -9861,11 +9870,11 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -9957,9 +9966,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -10051,8 +10060,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17"/>
@@ -10087,8 +10096,8 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
     </row>
-    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17"/>
@@ -10137,8 +10146,8 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="17"/>
@@ -10215,8 +10224,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="17"/>
@@ -10255,21 +10264,21 @@
       </c>
       <c r="AG8" s="3"/>
     </row>
-    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="M10" s="32" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="M10" s="31" t="s">
         <v>56</v>
       </c>
       <c r="N10" s="16"/>
@@ -10282,75 +10291,75 @@
       <c r="U10" s="16"/>
       <c r="V10" s="17"/>
     </row>
-    <row r="11" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="29" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="M11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="23" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="23" t="s">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="27"/>
       <c r="AA12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
+    <row r="13" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
       <c r="O13" s="34" t="s">
         <v>23</v>
       </c>
@@ -10368,26 +10377,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+    <row r="14" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="M14" s="4" t="str">
         <f>B5</f>
         <v>Кирилл</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="15">
+      <c r="O14" s="18">
         <f>SUM(D5:R5)</f>
         <v>0</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="15">
+      <c r="R14" s="18">
         <f>SUM(S5:AG5)</f>
         <v>0</v>
       </c>
@@ -10396,26 +10405,26 @@
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+    <row r="15" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="M15" s="4" t="str">
         <f>B6</f>
         <v>Лариса</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="15">
+      <c r="O15" s="18">
         <f>SUM(D6:R6)</f>
         <v>5</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="15">
+      <c r="R15" s="18">
         <f>SUM(S6:AG6)</f>
         <v>2</v>
       </c>
@@ -10424,26 +10433,26 @@
       <c r="U15" s="12"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+    <row r="16" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="M16" s="42" t="str">
         <f>B7</f>
         <v>Алена</v>
       </c>
       <c r="N16" s="17"/>
-      <c r="O16" s="15">
+      <c r="O16" s="18">
         <f>SUM(D7:R7)</f>
         <v>10</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="15">
+      <c r="R16" s="18">
         <f>SUM(S7:AG7)</f>
         <v>11</v>
       </c>
@@ -10452,26 +10461,26 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+    <row r="17" spans="5:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="M17" s="42" t="str">
         <f>B8</f>
         <v>Нурик</v>
       </c>
       <c r="N17" s="17"/>
-      <c r="O17" s="15">
+      <c r="O17" s="18">
         <f>SUM(D8:R8)</f>
         <v>0</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="15">
+      <c r="R17" s="18">
         <f>SUM(S8:AG8)</f>
         <v>2</v>
       </c>
@@ -10480,33 +10489,33 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="5:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="B2:AG2"/>

--- a/График работы.xlsx
+++ b/График работы.xlsx
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -155,6 +155,20 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <family val="2"/>
+      <color rgb="FF92D050"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="14"/>
     </font>
@@ -206,7 +220,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -305,6 +319,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -322,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -511,6 +531,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="00000000"/>
       </left>
       <right style="thin">
@@ -527,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -558,17 +593,23 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -641,16 +682,16 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,11 +992,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -970,50 +1011,50 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Февраль</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -1160,9 +1201,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -1251,13 +1292,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
@@ -1344,13 +1385,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
@@ -1439,13 +1480,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
@@ -1534,13 +1575,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n">
         <v>0</v>
       </c>
@@ -1629,105 +1670,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" s="26">
-      <c r="B10" s="38" t="inlineStr">
+    <row r="10" ht="18" customHeight="1" s="28">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="43" t="inlineStr">
+      <c r="M10" s="45" t="inlineStr">
         <is>
           <t>Итоги (Февраль)</t>
         </is>
       </c>
-      <c r="N10" s="33" t="n"/>
-      <c r="O10" s="33" t="n"/>
-      <c r="P10" s="33" t="n"/>
-      <c r="Q10" s="33" t="n"/>
-      <c r="R10" s="33" t="n"/>
-      <c r="S10" s="33" t="n"/>
-      <c r="T10" s="33" t="n"/>
-      <c r="U10" s="33" t="n"/>
-      <c r="V10" s="33" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="26">
-      <c r="B11" s="28" t="inlineStr">
+      <c r="N10" s="35" t="n"/>
+      <c r="O10" s="35" t="n"/>
+      <c r="P10" s="35" t="n"/>
+      <c r="Q10" s="35" t="n"/>
+      <c r="R10" s="35" t="n"/>
+      <c r="S10" s="35" t="n"/>
+      <c r="T10" s="35" t="n"/>
+      <c r="U10" s="35" t="n"/>
+      <c r="V10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="28">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="31" t="n"/>
-      <c r="O11" s="29" t="inlineStr">
+      <c r="N11" s="33" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="31" t="n"/>
-      <c r="R11" s="29" t="inlineStr">
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="33" t="n"/>
+      <c r="R11" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="30" t="n"/>
-      <c r="T11" s="31" t="n"/>
-      <c r="U11" s="41" t="inlineStr">
+      <c r="S11" s="32" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="31" t="n"/>
+      <c r="V11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="36" t="n"/>
-      <c r="N12" s="37" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="33" t="n"/>
-      <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="33" t="n"/>
-      <c r="T12" s="34" t="n"/>
-      <c r="U12" s="32" t="n"/>
-      <c r="V12" s="34" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="39" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="36" t="n"/>
+      <c r="R12" s="34" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="36" t="n"/>
+      <c r="U12" s="34" t="n"/>
+      <c r="V12" s="36" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="26">
-      <c r="M13" s="32" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="39" t="inlineStr">
+    <row r="13" ht="15.6" customHeight="1" s="28">
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="36" t="n"/>
+      <c r="O13" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="45" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -1739,24 +1780,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="26">
+    <row r="14" ht="18" customHeight="1" s="28">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="21">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23">
         <f>SUM(S5:AF5)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="5" t="n">
         <v>2</v>
       </c>
@@ -1766,75 +1807,75 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.4" customHeight="1" s="26">
+    <row r="15" ht="14.4" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S6:AF6)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="26">
+    <row r="16" ht="14.4" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S7:AF7)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="26">
+    <row r="17" ht="14.4" customHeight="1" s="28">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="21">
+      <c r="O17" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S8:AF8)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26">
+    <row r="18" ht="14.4" customHeight="1" s="28">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="26"/>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26">
+    <row r="19" ht="14.4" customHeight="1" s="28"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -1885,11 +1926,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="33"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="33"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1904,51 +1945,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Ноябрь</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -2100,9 +2141,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -2194,13 +2235,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -2234,13 +2275,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="6" t="n">
@@ -2276,13 +2317,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -2346,13 +2387,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -2384,13 +2425,13 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="24" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n"/>
+      <c r="C9" s="25" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -2444,105 +2485,105 @@
       </c>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1" s="26">
-      <c r="B11" s="38" t="inlineStr">
+    <row r="11" ht="18" customHeight="1" s="28">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="47" t="inlineStr">
+      <c r="M11" s="49" t="inlineStr">
         <is>
           <t>Итоги (Ноябрь)</t>
         </is>
       </c>
-      <c r="N11" s="22" t="n"/>
-      <c r="O11" s="22" t="n"/>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="22" t="n"/>
-      <c r="R11" s="22" t="n"/>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="V11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" s="26">
-      <c r="B12" s="28" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="24" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="24" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="24" t="n"/>
+      <c r="U11" s="24" t="n"/>
+      <c r="V11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" s="28">
+      <c r="B12" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="27" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="35" t="inlineStr">
+      <c r="M12" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="29" t="inlineStr">
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="31" t="n"/>
-      <c r="R12" s="29" t="inlineStr">
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+      <c r="R12" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="30" t="n"/>
-      <c r="T12" s="31" t="n"/>
-      <c r="U12" s="41" t="inlineStr">
+      <c r="S12" s="32" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="31" t="n"/>
+      <c r="V12" s="33" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="25" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="36" t="n"/>
-      <c r="N13" s="37" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="33" t="n"/>
-      <c r="Q13" s="34" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="33" t="n"/>
-      <c r="T13" s="34" t="n"/>
-      <c r="U13" s="32" t="n"/>
-      <c r="V13" s="34" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="39" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="36" t="n"/>
+      <c r="R13" s="34" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="36" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="36" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="26">
-      <c r="M14" s="32" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="39" t="inlineStr">
+    <row r="14" ht="15.6" customHeight="1" s="28">
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="45" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -2554,117 +2595,117 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" s="26">
+    <row r="16" ht="18" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="26">
-      <c r="M17" s="48">
+    <row r="17" ht="18" customHeight="1" s="28">
+      <c r="M17" s="50">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="n"/>
-      <c r="O17" s="21">
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="26">
-      <c r="M18" s="48">
+    <row r="18" ht="18" customHeight="1" s="28">
+      <c r="M18" s="50">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="23" t="n"/>
-      <c r="O18" s="21">
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="21">
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="25" t="n"/>
+      <c r="R18" s="23">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="n"/>
-      <c r="T18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="25" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="26">
-      <c r="M19" s="48">
+    <row r="19" ht="14.4" customHeight="1" s="28">
+      <c r="M19" s="50">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="23" t="n"/>
-      <c r="O19" s="21">
+      <c r="N19" s="25" t="n"/>
+      <c r="O19" s="23">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="21">
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="25" t="n"/>
+      <c r="R19" s="23">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="n"/>
-      <c r="T19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="25" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
-    <row r="23" ht="14.4" customHeight="1" s="26"/>
-    <row r="24" ht="14.4" customHeight="1" s="26"/>
-    <row r="25" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
+    <row r="23" ht="14.4" customHeight="1" s="28"/>
+    <row r="24" ht="14.4" customHeight="1" s="28"/>
+    <row r="25" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
@@ -2719,13 +2760,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="4"/>
-    <col width="5.33203125" customWidth="1" style="26" min="5" max="5"/>
-    <col width="5.44140625" customWidth="1" style="26" min="6" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="33"/>
-    <col width="5.5546875" customWidth="1" style="26" min="34" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="4"/>
+    <col width="5.33203125" customWidth="1" style="28" min="5" max="5"/>
+    <col width="5.44140625" customWidth="1" style="28" min="6" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="33"/>
+    <col width="5.5546875" customWidth="1" style="28" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2740,52 +2781,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Декабрь</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -2942,9 +2983,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -3039,13 +3080,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="9" t="n">
@@ -3086,13 +3127,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="9" t="n">
         <v>4</v>
@@ -3133,13 +3174,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -3208,13 +3249,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -3247,13 +3288,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="24" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n"/>
+      <c r="C9" s="25" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="9" t="n">
         <v>3</v>
@@ -3306,110 +3347,110 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1" s="26">
-      <c r="B11" s="38" t="inlineStr">
+    <row r="11" ht="18" customHeight="1" s="28">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="47" t="inlineStr">
+      <c r="M11" s="49" t="inlineStr">
         <is>
           <t>Итоги (Декабрь)</t>
         </is>
       </c>
-      <c r="N11" s="22" t="n"/>
-      <c r="O11" s="22" t="n"/>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="22" t="n"/>
-      <c r="R11" s="22" t="n"/>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="V11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" s="26">
-      <c r="B12" s="28" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="24" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="24" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="24" t="n"/>
+      <c r="U11" s="24" t="n"/>
+      <c r="V11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" s="28">
+      <c r="B12" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="27" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="35" t="inlineStr">
+      <c r="M12" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="29" t="inlineStr">
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="31" t="n"/>
-      <c r="R12" s="29" t="inlineStr">
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+      <c r="R12" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="30" t="n"/>
-      <c r="T12" s="31" t="n"/>
-      <c r="U12" s="49" t="inlineStr">
+      <c r="S12" s="32" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="51" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="31" t="n"/>
+      <c r="V12" s="33" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="25" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="36" t="n"/>
-      <c r="N13" s="37" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="33" t="n"/>
-      <c r="Q13" s="34" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="33" t="n"/>
-      <c r="T13" s="34" t="n"/>
-      <c r="U13" s="32" t="n"/>
-      <c r="V13" s="34" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="39" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="36" t="n"/>
+      <c r="R13" s="34" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="36" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="36" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="26">
-      <c r="B14" s="50" t="inlineStr">
+    <row r="14" ht="15.6" customHeight="1" s="28">
+      <c r="B14" s="52" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="32" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="39" t="inlineStr">
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="45" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="13" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -3421,24 +3462,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="7">
         <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
@@ -3448,24 +3489,24 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" s="26">
+    <row r="16" ht="18" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
@@ -3475,24 +3516,24 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1" s="26">
-      <c r="M17" s="48">
+    <row r="17" ht="18" customHeight="1" s="28">
+      <c r="M17" s="50">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="n"/>
-      <c r="O17" s="21">
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="23">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="7">
         <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
@@ -3502,24 +3543,24 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="26">
-      <c r="M18" s="48">
+    <row r="18" ht="18" customHeight="1" s="28">
+      <c r="M18" s="50">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="23" t="n"/>
-      <c r="O18" s="21">
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="23">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="21">
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="25" t="n"/>
+      <c r="R18" s="23">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="n"/>
-      <c r="T18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="25" t="n"/>
       <c r="U18" s="7">
         <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
@@ -3529,24 +3570,24 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="26">
-      <c r="M19" s="48">
+    <row r="19" ht="18" customHeight="1" s="28">
+      <c r="M19" s="50">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="23" t="n"/>
-      <c r="O19" s="21">
+      <c r="N19" s="25" t="n"/>
+      <c r="O19" s="23">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="21">
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="25" t="n"/>
+      <c r="R19" s="23">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="n"/>
-      <c r="T19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="25" t="n"/>
       <c r="U19" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
@@ -3556,12 +3597,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
-    <row r="23" ht="14.4" customHeight="1" s="26"/>
-    <row r="24" ht="14.4" customHeight="1" s="26"/>
-    <row r="25" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
+    <row r="23" ht="14.4" customHeight="1" s="28"/>
+    <row r="24" ht="14.4" customHeight="1" s="28"/>
+    <row r="25" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="33">
     <mergeCell ref="R15:T15"/>
@@ -3612,18 +3653,18 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="4"/>
-    <col width="5.33203125" customWidth="1" style="26" min="5" max="5"/>
-    <col width="5.44140625" customWidth="1" style="26" min="6" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="33"/>
-    <col width="5.5546875" customWidth="1" style="26" min="34" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="4"/>
+    <col width="5.33203125" customWidth="1" style="28" min="5" max="5"/>
+    <col width="5.44140625" customWidth="1" style="28" min="6" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="33"/>
+    <col width="5.5546875" customWidth="1" style="28" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3638,52 +3679,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Январь</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
@@ -3840,9 +3881,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -3937,74 +3978,78 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
-      <c r="D5" s="51" t="n"/>
-      <c r="E5" s="51" t="n"/>
-      <c r="F5" s="52" t="n">
+      <c r="C5" s="25" t="n"/>
+      <c r="D5" s="53" t="n"/>
+      <c r="E5" s="53" t="n"/>
+      <c r="F5" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="51" t="n"/>
-      <c r="H5" s="51" t="n"/>
-      <c r="I5" s="51" t="n"/>
-      <c r="J5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51" t="n"/>
-      <c r="M5" s="51" t="n"/>
-      <c r="N5" s="51" t="n"/>
-      <c r="O5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="51" t="n"/>
-      <c r="Q5" s="51" t="n"/>
-      <c r="R5" s="51" t="n"/>
-      <c r="S5" s="51" t="n"/>
-      <c r="T5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="51" t="n"/>
-      <c r="V5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="51" t="n"/>
-      <c r="X5" s="51" t="n"/>
-      <c r="Y5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="52" t="n">
+      <c r="G5" s="53" t="n"/>
+      <c r="H5" s="53" t="n"/>
+      <c r="I5" s="53" t="n"/>
+      <c r="J5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="53" t="n"/>
+      <c r="N5" s="53" t="n"/>
+      <c r="O5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53" t="n"/>
+      <c r="R5" s="53" t="n"/>
+      <c r="S5" s="53" t="n"/>
+      <c r="T5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="53" t="n"/>
+      <c r="V5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="53" t="n"/>
+      <c r="X5" s="53" t="n"/>
+      <c r="Y5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="54" t="n">
         <v>7</v>
       </c>
-      <c r="AA5" s="52" t="n">
+      <c r="AA5" s="54" t="n">
         <v>10</v>
       </c>
-      <c r="AB5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="51" t="n"/>
-      <c r="AD5" s="51" t="n"/>
-      <c r="AE5" s="51" t="n"/>
-      <c r="AF5" s="51" t="n"/>
-      <c r="AG5" s="51" t="n"/>
-      <c r="AH5" s="53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+      <c r="AB5" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="53" t="n"/>
+      <c r="AD5" s="53" t="n"/>
+      <c r="AE5" s="53" t="n"/>
+      <c r="AF5" s="53" t="n"/>
+      <c r="AG5" s="53" t="n"/>
+      <c r="AH5" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -4031,19 +4076,21 @@
       <c r="AA6" s="3" t="n"/>
       <c r="AB6" s="3" t="n"/>
       <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="3" t="n"/>
+      <c r="AD6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" s="3" t="n"/>
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -4058,9 +4105,7 @@
       </c>
       <c r="J7" s="14" t="n"/>
       <c r="K7" s="3" t="n"/>
-      <c r="L7" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="53" t="n"/>
       <c r="M7" s="3" t="n"/>
       <c r="N7" s="3" t="n"/>
       <c r="O7" s="3" t="n"/>
@@ -4070,13 +4115,13 @@
       <c r="S7" s="3" t="n"/>
       <c r="T7" s="3" t="n"/>
       <c r="U7" s="3" t="n"/>
-      <c r="V7" s="17" t="n"/>
+      <c r="V7" s="16" t="n"/>
       <c r="W7" s="3" t="n"/>
       <c r="X7" s="3" t="n"/>
       <c r="Y7" s="3" t="n"/>
       <c r="Z7" s="3" t="n"/>
       <c r="AA7" s="3" t="n"/>
-      <c r="AB7" s="17" t="n"/>
+      <c r="AB7" s="16" t="n"/>
       <c r="AC7" s="3" t="n"/>
       <c r="AD7" s="3" t="n"/>
       <c r="AE7" s="3" t="n"/>
@@ -4084,13 +4129,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -4102,13 +4147,17 @@
       <c r="L8" s="3" t="n"/>
       <c r="M8" s="3" t="n"/>
       <c r="N8" s="3" t="n"/>
-      <c r="O8" s="17" t="n"/>
+      <c r="O8" s="16" t="n"/>
       <c r="P8" s="3" t="n"/>
       <c r="Q8" s="3" t="n"/>
       <c r="R8" s="3" t="n"/>
-      <c r="S8" s="3" t="n"/>
+      <c r="S8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" s="3" t="n"/>
-      <c r="U8" s="3" t="n"/>
+      <c r="U8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" s="3" t="n"/>
       <c r="W8" s="3" t="n"/>
       <c r="X8" s="3" t="n"/>
@@ -4116,23 +4165,25 @@
       <c r="Z8" s="3" t="n"/>
       <c r="AA8" s="3" t="n"/>
       <c r="AB8" s="3" t="n"/>
-      <c r="AC8" s="3" t="n"/>
+      <c r="AC8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AD8" s="3" t="n"/>
       <c r="AE8" s="3" t="n"/>
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="24" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n"/>
+      <c r="C9" s="25" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="17" t="n">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="n"/>
@@ -4144,7 +4195,7 @@
       <c r="M9" s="3" t="n"/>
       <c r="N9" s="3" t="n"/>
       <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
+      <c r="P9" s="53" t="n"/>
       <c r="Q9" s="3" t="n"/>
       <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="n"/>
@@ -4153,7 +4204,7 @@
       <c r="V9" s="3" t="n"/>
       <c r="W9" s="3" t="n"/>
       <c r="X9" s="3" t="n"/>
-      <c r="Y9" s="17" t="n"/>
+      <c r="Y9" s="16" t="n"/>
       <c r="Z9" s="3" t="n"/>
       <c r="AA9" s="3" t="n"/>
       <c r="AB9" s="3" t="n"/>
@@ -4165,110 +4216,110 @@
       <c r="AH9" s="3" t="n"/>
     </row>
     <row r="10"/>
-    <row r="11" ht="18" customHeight="1" s="26">
-      <c r="B11" s="38" t="inlineStr">
+    <row r="11" ht="18" customHeight="1" s="28">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="47" t="inlineStr">
+      <c r="M11" s="49" t="inlineStr">
         <is>
           <t>Итоги (Январь)</t>
         </is>
       </c>
-      <c r="N11" s="22" t="n"/>
-      <c r="O11" s="22" t="n"/>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="22" t="n"/>
-      <c r="R11" s="22" t="n"/>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="V11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="26">
-      <c r="B12" s="28" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="24" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="24" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="24" t="n"/>
+      <c r="U11" s="24" t="n"/>
+      <c r="V11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="28">
+      <c r="B12" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="27" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="35" t="inlineStr">
+      <c r="M12" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="29" t="inlineStr">
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="31" t="n"/>
-      <c r="R12" s="29" t="inlineStr">
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+      <c r="R12" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="30" t="n"/>
-      <c r="T12" s="31" t="n"/>
-      <c r="U12" s="49" t="inlineStr">
+      <c r="S12" s="32" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="51" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="31" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="26">
-      <c r="B13" s="25" t="inlineStr">
+      <c r="V12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="28">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="36" t="n"/>
-      <c r="N13" s="37" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="33" t="n"/>
-      <c r="Q13" s="34" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="33" t="n"/>
-      <c r="T13" s="34" t="n"/>
-      <c r="U13" s="32" t="n"/>
-      <c r="V13" s="34" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="39" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="36" t="n"/>
+      <c r="R13" s="34" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="36" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="36" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1" s="26">
-      <c r="B14" s="50" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="28">
+      <c r="B14" s="52" t="inlineStr">
         <is>
           <t>Подработка/ч</t>
         </is>
       </c>
-      <c r="M14" s="32" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="39" t="inlineStr">
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="45" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="13" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -4280,25 +4331,25 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
-      <c r="M15" s="48" t="inlineStr">
+    <row r="15" ht="18" customHeight="1" s="28">
+      <c r="M15" s="50" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="N15" s="23" t="n"/>
-      <c r="O15" s="21">
+      <c r="N15" s="25" t="n"/>
+      <c r="O15" s="23">
         <f>SUMIF(D5:R5,"=1")</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUMIF(S5:AH5,"=1")</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="7">
         <f>SUMIF(D5:R5,"&gt;1")</f>
         <v/>
@@ -4308,25 +4359,25 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" s="26">
-      <c r="M16" s="48" t="inlineStr">
+    <row r="16" ht="18" customHeight="1" s="28">
+      <c r="M16" s="50" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="N16" s="23" t="n"/>
-      <c r="O16" s="21">
+      <c r="N16" s="25" t="n"/>
+      <c r="O16" s="23">
         <f>SUMIF(D6:R6,"=1")</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUMIF(S6:AH6,"=1")</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="7">
         <f>SUMIF(D6:R6,"&gt;1")</f>
         <v/>
@@ -4336,25 +4387,25 @@
         <v/>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1" s="26">
-      <c r="M17" s="48" t="inlineStr">
+    <row r="17" ht="18" customHeight="1" s="28">
+      <c r="M17" s="50" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="N17" s="23" t="n"/>
-      <c r="O17" s="21">
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="23">
         <f>SUMIF(D7:R7,"=1")</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUMIF(S7:AH7,"=1")</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="7">
         <f>SUMIF(D7:R7,"&gt;1")</f>
         <v/>
@@ -4364,25 +4415,25 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="18" customHeight="1" s="26">
-      <c r="M18" s="48" t="inlineStr">
+    <row r="18" ht="18" customHeight="1" s="28">
+      <c r="M18" s="50" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="N18" s="23" t="n"/>
-      <c r="O18" s="21">
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="23">
         <f>SUMIF(D8:R8,"=1")</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="21">
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="25" t="n"/>
+      <c r="R18" s="23">
         <f>SUMIF(S8:AH8,"=1")</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="n"/>
-      <c r="T18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="25" t="n"/>
       <c r="U18" s="7">
         <f>SUMIF(D8:R8,"&gt;1")</f>
         <v/>
@@ -4392,25 +4443,25 @@
         <v/>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" s="26">
-      <c r="M19" s="48" t="inlineStr">
+    <row r="19" ht="18" customHeight="1" s="28">
+      <c r="M19" s="50" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="N19" s="23" t="n"/>
-      <c r="O19" s="21">
+      <c r="N19" s="25" t="n"/>
+      <c r="O19" s="23">
         <f>SUMIF(D9:R9,"=1")</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="21">
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="25" t="n"/>
+      <c r="R19" s="23">
         <f>SUMIF(S9:AH9,"=1")</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="n"/>
-      <c r="T19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="25" t="n"/>
       <c r="U19" s="7">
         <f>SUMIF(D9:R9,"&gt;1")</f>
         <v/>
@@ -4420,11 +4471,11 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
-    <row r="23" ht="14.4" customHeight="1" s="26"/>
-    <row r="24" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
+    <row r="23" ht="14.4" customHeight="1" s="28"/>
+    <row r="24" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="35">
     <mergeCell ref="R15:T15"/>
@@ -4482,11 +4533,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4501,52 +4552,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Март</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пт</t>
@@ -4703,9 +4754,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -4800,13 +4851,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -4843,13 +4894,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -4884,13 +4935,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Дима</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="6" t="n">
@@ -4947,13 +4998,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="2" t="n">
         <v>1</v>
       </c>
@@ -5016,105 +5067,105 @@
       </c>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" s="26">
-      <c r="B10" s="38" t="inlineStr">
+    <row r="10" ht="18" customHeight="1" s="28">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="43" t="inlineStr">
+      <c r="M10" s="45" t="inlineStr">
         <is>
           <t>Итоги (Март)</t>
         </is>
       </c>
-      <c r="N10" s="33" t="n"/>
-      <c r="O10" s="33" t="n"/>
-      <c r="P10" s="33" t="n"/>
-      <c r="Q10" s="33" t="n"/>
-      <c r="R10" s="33" t="n"/>
-      <c r="S10" s="33" t="n"/>
-      <c r="T10" s="33" t="n"/>
-      <c r="U10" s="33" t="n"/>
-      <c r="V10" s="33" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="26">
-      <c r="B11" s="28" t="inlineStr">
+      <c r="N10" s="35" t="n"/>
+      <c r="O10" s="35" t="n"/>
+      <c r="P10" s="35" t="n"/>
+      <c r="Q10" s="35" t="n"/>
+      <c r="R10" s="35" t="n"/>
+      <c r="S10" s="35" t="n"/>
+      <c r="T10" s="35" t="n"/>
+      <c r="U10" s="35" t="n"/>
+      <c r="V10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="28">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="31" t="n"/>
-      <c r="O11" s="29" t="inlineStr">
+      <c r="N11" s="33" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="31" t="n"/>
-      <c r="R11" s="29" t="inlineStr">
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="33" t="n"/>
+      <c r="R11" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="30" t="n"/>
-      <c r="T11" s="31" t="n"/>
-      <c r="U11" s="41" t="inlineStr">
+      <c r="S11" s="32" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="31" t="n"/>
+      <c r="V11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="36" t="n"/>
-      <c r="N12" s="37" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="33" t="n"/>
-      <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="33" t="n"/>
-      <c r="T12" s="34" t="n"/>
-      <c r="U12" s="32" t="n"/>
-      <c r="V12" s="34" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="39" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="36" t="n"/>
+      <c r="R12" s="34" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="36" t="n"/>
+      <c r="U12" s="34" t="n"/>
+      <c r="V12" s="36" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="26">
-      <c r="M13" s="32" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="39" t="inlineStr">
+    <row r="13" ht="15.6" customHeight="1" s="28">
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="36" t="n"/>
+      <c r="O13" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="45" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -5126,24 +5177,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="26">
+    <row r="14" ht="18" customHeight="1" s="28">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="21">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="7" t="n">
         <v>0</v>
       </c>
@@ -5153,75 +5204,75 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14.4" customHeight="1" s="26">
+    <row r="15" ht="14.4" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="26">
+    <row r="16" ht="14.4" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="26">
+    <row r="17" ht="14.4" customHeight="1" s="28">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="21">
+      <c r="O17" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26">
+    <row r="18" ht="14.4" customHeight="1" s="28">
       <c r="U18" s="10" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="26"/>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26">
+    <row r="19" ht="14.4" customHeight="1" s="28"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28">
       <c r="R21" s="10" t="n"/>
     </row>
   </sheetData>
@@ -5272,11 +5323,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5291,51 +5342,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="46" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="48" t="inlineStr">
         <is>
           <t>Апрель</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -5487,9 +5538,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -5581,13 +5632,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -5619,13 +5670,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -5661,13 +5712,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Маша</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -5699,13 +5750,13 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -5767,13 +5818,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="24" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Рома</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n"/>
+      <c r="C9" s="25" t="n"/>
       <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
@@ -5807,13 +5858,13 @@
       <c r="AF9" s="3" t="n"/>
       <c r="AG9" s="3" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" s="26">
-      <c r="B10" s="24" t="inlineStr">
+    <row r="10" ht="18" customHeight="1" s="28">
+      <c r="B10" s="26" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C10" s="23" t="n"/>
+      <c r="C10" s="25" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -5869,105 +5920,105 @@
       </c>
       <c r="AG10" s="3" t="n"/>
     </row>
-    <row r="12" ht="18" customHeight="1" s="26">
-      <c r="B12" s="38" t="inlineStr">
+    <row r="12" ht="18" customHeight="1" s="28">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E12" s="40" t="inlineStr">
+      <c r="E12" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M12" s="43" t="inlineStr">
+      <c r="M12" s="45" t="inlineStr">
         <is>
           <t>Итоги (Апрель)</t>
         </is>
       </c>
-      <c r="N12" s="33" t="n"/>
-      <c r="O12" s="33" t="n"/>
-      <c r="P12" s="33" t="n"/>
-      <c r="Q12" s="33" t="n"/>
-      <c r="R12" s="33" t="n"/>
-      <c r="S12" s="33" t="n"/>
-      <c r="T12" s="33" t="n"/>
-      <c r="U12" s="33" t="n"/>
-      <c r="V12" s="33" t="n"/>
-    </row>
-    <row r="13" ht="15.6" customHeight="1" s="26">
-      <c r="B13" s="28" t="inlineStr">
+      <c r="N12" s="35" t="n"/>
+      <c r="O12" s="35" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="35" t="n"/>
+      <c r="R12" s="35" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="35" t="n"/>
+      <c r="U12" s="35" t="n"/>
+      <c r="V12" s="35" t="n"/>
+    </row>
+    <row r="13" ht="15.6" customHeight="1" s="28">
+      <c r="B13" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E13" s="27" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M13" s="35" t="inlineStr">
+      <c r="M13" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N13" s="31" t="n"/>
-      <c r="O13" s="29" t="inlineStr">
+      <c r="N13" s="33" t="n"/>
+      <c r="O13" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P13" s="30" t="n"/>
-      <c r="Q13" s="31" t="n"/>
-      <c r="R13" s="29" t="inlineStr">
+      <c r="P13" s="32" t="n"/>
+      <c r="Q13" s="33" t="n"/>
+      <c r="R13" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S13" s="30" t="n"/>
-      <c r="T13" s="31" t="n"/>
-      <c r="U13" s="41" t="inlineStr">
+      <c r="S13" s="32" t="n"/>
+      <c r="T13" s="33" t="n"/>
+      <c r="U13" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V13" s="31" t="n"/>
+      <c r="V13" s="33" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="25" t="inlineStr">
+      <c r="B14" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M14" s="36" t="n"/>
-      <c r="N14" s="37" t="n"/>
-      <c r="O14" s="32" t="n"/>
-      <c r="P14" s="33" t="n"/>
-      <c r="Q14" s="34" t="n"/>
-      <c r="R14" s="32" t="n"/>
-      <c r="S14" s="33" t="n"/>
-      <c r="T14" s="34" t="n"/>
-      <c r="U14" s="32" t="n"/>
-      <c r="V14" s="34" t="n"/>
+      <c r="M14" s="38" t="n"/>
+      <c r="N14" s="39" t="n"/>
+      <c r="O14" s="34" t="n"/>
+      <c r="P14" s="35" t="n"/>
+      <c r="Q14" s="36" t="n"/>
+      <c r="R14" s="34" t="n"/>
+      <c r="S14" s="35" t="n"/>
+      <c r="T14" s="36" t="n"/>
+      <c r="U14" s="34" t="n"/>
+      <c r="V14" s="36" t="n"/>
       <c r="AA14" s="10" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
-      <c r="M15" s="32" t="n"/>
-      <c r="N15" s="34" t="n"/>
-      <c r="O15" s="39" t="inlineStr">
+    <row r="15" ht="18" customHeight="1" s="28">
+      <c r="M15" s="34" t="n"/>
+      <c r="N15" s="36" t="n"/>
+      <c r="O15" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="45" t="inlineStr">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -5979,145 +6030,145 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="26">
+    <row r="16" ht="14.4" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="7" t="n"/>
       <c r="V16" s="8" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="26">
+    <row r="17" ht="14.4" customHeight="1" s="28">
       <c r="M17" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="21">
+      <c r="O17" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="12" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26">
+    <row r="18" ht="14.4" customHeight="1" s="28">
       <c r="M18" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N18" s="4" t="n"/>
-      <c r="O18" s="21">
+      <c r="O18" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="21">
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="25" t="n"/>
+      <c r="R18" s="23">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="n"/>
-      <c r="T18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="25" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="26">
+    <row r="19" ht="14.4" customHeight="1" s="28">
       <c r="M19" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N19" s="4" t="n"/>
-      <c r="O19" s="21">
+      <c r="O19" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="21">
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="25" t="n"/>
+      <c r="R19" s="23">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="n"/>
-      <c r="T19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="25" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26">
+    <row r="20" ht="14.4" customHeight="1" s="28">
       <c r="M20" s="4">
         <f>B9</f>
         <v/>
       </c>
       <c r="N20" s="4" t="n"/>
-      <c r="O20" s="21">
+      <c r="O20" s="23">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P20" s="22" t="n"/>
-      <c r="Q20" s="23" t="n"/>
-      <c r="R20" s="21">
+      <c r="P20" s="24" t="n"/>
+      <c r="Q20" s="25" t="n"/>
+      <c r="R20" s="23">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S20" s="22" t="n"/>
-      <c r="T20" s="23" t="n"/>
+      <c r="S20" s="24" t="n"/>
+      <c r="T20" s="25" t="n"/>
       <c r="U20" s="5" t="n"/>
       <c r="V20" s="5" t="n"/>
     </row>
-    <row r="21" ht="14.4" customHeight="1" s="26">
+    <row r="21" ht="14.4" customHeight="1" s="28">
       <c r="M21" s="4">
         <f>B10</f>
         <v/>
       </c>
       <c r="N21" s="4" t="n"/>
-      <c r="O21" s="21">
+      <c r="O21" s="23">
         <f>SUM(D10:R10)</f>
         <v/>
       </c>
-      <c r="P21" s="22" t="n"/>
-      <c r="Q21" s="23" t="n"/>
-      <c r="R21" s="21">
+      <c r="P21" s="24" t="n"/>
+      <c r="Q21" s="25" t="n"/>
+      <c r="R21" s="23">
         <f>SUM(S10:AG10)</f>
         <v/>
       </c>
-      <c r="S21" s="22" t="n"/>
-      <c r="T21" s="23" t="n"/>
+      <c r="S21" s="24" t="n"/>
+      <c r="T21" s="25" t="n"/>
       <c r="U21" s="5" t="n"/>
       <c r="V21" s="5" t="n"/>
     </row>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
     <row r="23">
       <c r="R23" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R15:T15"/>
     <mergeCell ref="E13:K21"/>
-    <mergeCell ref="R15:T15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="O13:Q14"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R20:T20"/>
     <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R20:T20"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R17:T17"/>
@@ -6163,11 +6214,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6182,52 +6233,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Май</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>ср</t>
@@ -6384,9 +6435,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -6481,13 +6532,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="2" t="n">
         <v>1</v>
       </c>
@@ -6522,13 +6573,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -6561,13 +6612,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -6628,13 +6679,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -6699,105 +6750,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" s="26">
-      <c r="B10" s="38" t="inlineStr">
+    <row r="10" ht="18" customHeight="1" s="28">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="47" t="inlineStr">
+      <c r="M10" s="49" t="inlineStr">
         <is>
           <t>Итоги (Май)</t>
         </is>
       </c>
-      <c r="N10" s="22" t="n"/>
-      <c r="O10" s="22" t="n"/>
-      <c r="P10" s="22" t="n"/>
-      <c r="Q10" s="22" t="n"/>
-      <c r="R10" s="22" t="n"/>
-      <c r="S10" s="22" t="n"/>
-      <c r="T10" s="22" t="n"/>
-      <c r="U10" s="22" t="n"/>
-      <c r="V10" s="23" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="26">
-      <c r="B11" s="28" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="24" t="n"/>
+      <c r="P10" s="24" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="24" t="n"/>
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="24" t="n"/>
+      <c r="U10" s="24" t="n"/>
+      <c r="V10" s="25" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="28">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="31" t="n"/>
-      <c r="O11" s="29" t="inlineStr">
+      <c r="N11" s="33" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="31" t="n"/>
-      <c r="R11" s="29" t="inlineStr">
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="33" t="n"/>
+      <c r="R11" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="30" t="n"/>
-      <c r="T11" s="31" t="n"/>
-      <c r="U11" s="41" t="inlineStr">
+      <c r="S11" s="32" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="31" t="n"/>
+      <c r="V11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="36" t="n"/>
-      <c r="N12" s="37" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="33" t="n"/>
-      <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="33" t="n"/>
-      <c r="T12" s="34" t="n"/>
-      <c r="U12" s="32" t="n"/>
-      <c r="V12" s="34" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="39" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="36" t="n"/>
+      <c r="R12" s="34" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="36" t="n"/>
+      <c r="U12" s="34" t="n"/>
+      <c r="V12" s="36" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="26">
-      <c r="M13" s="32" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="39" t="inlineStr">
+    <row r="13" ht="15.6" customHeight="1" s="28">
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="36" t="n"/>
+      <c r="O13" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="45" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -6809,97 +6860,97 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="26">
+    <row r="14" ht="18" customHeight="1" s="28">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="21">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="26">
+    <row r="16" ht="14.4" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="26">
+    <row r="17" ht="14.4" customHeight="1" s="28">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="21">
+      <c r="O17" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26"/>
-    <row r="19" ht="14.4" customHeight="1" s="26">
+    <row r="18" ht="14.4" customHeight="1" s="28"/>
+    <row r="19" ht="14.4" customHeight="1" s="28">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -6948,11 +6999,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6967,51 +7018,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Июнь</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>сб</t>
@@ -7163,9 +7214,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -7257,13 +7308,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -7297,13 +7348,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -7347,13 +7398,13 @@
       </c>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -7405,13 +7456,13 @@
       <c r="AF7" s="3" t="n"/>
       <c r="AG7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Амелия</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
           <t>ё</t>
@@ -7473,105 +7524,105 @@
       <c r="AF8" s="3" t="n"/>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" s="26">
-      <c r="B10" s="38" t="inlineStr">
+    <row r="10" ht="18" customHeight="1" s="28">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="47" t="inlineStr">
+      <c r="M10" s="49" t="inlineStr">
         <is>
           <t>Итоги (Июнь)</t>
         </is>
       </c>
-      <c r="N10" s="22" t="n"/>
-      <c r="O10" s="22" t="n"/>
-      <c r="P10" s="22" t="n"/>
-      <c r="Q10" s="22" t="n"/>
-      <c r="R10" s="22" t="n"/>
-      <c r="S10" s="22" t="n"/>
-      <c r="T10" s="22" t="n"/>
-      <c r="U10" s="22" t="n"/>
-      <c r="V10" s="23" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="26">
-      <c r="B11" s="28" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="24" t="n"/>
+      <c r="P10" s="24" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="24" t="n"/>
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="24" t="n"/>
+      <c r="U10" s="24" t="n"/>
+      <c r="V10" s="25" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="28">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="31" t="n"/>
-      <c r="O11" s="29" t="inlineStr">
+      <c r="N11" s="33" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="31" t="n"/>
-      <c r="R11" s="29" t="inlineStr">
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="33" t="n"/>
+      <c r="R11" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="30" t="n"/>
-      <c r="T11" s="31" t="n"/>
-      <c r="U11" s="41" t="inlineStr">
+      <c r="S11" s="32" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="31" t="n"/>
+      <c r="V11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="36" t="n"/>
-      <c r="N12" s="37" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="33" t="n"/>
-      <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="33" t="n"/>
-      <c r="T12" s="34" t="n"/>
-      <c r="U12" s="32" t="n"/>
-      <c r="V12" s="34" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="39" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="36" t="n"/>
+      <c r="R12" s="34" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="36" t="n"/>
+      <c r="U12" s="34" t="n"/>
+      <c r="V12" s="36" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="26">
-      <c r="M13" s="32" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="39" t="inlineStr">
+    <row r="13" ht="15.6" customHeight="1" s="28">
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="36" t="n"/>
+      <c r="O13" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="45" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -7583,24 +7634,24 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="26">
+    <row r="14" ht="18" customHeight="1" s="28">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="21">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="inlineStr">
         <is>
@@ -7608,76 +7659,76 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="26">
+    <row r="16" ht="14.4" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="26">
+    <row r="17" ht="14.4" customHeight="1" s="28">
       <c r="M17" s="4">
         <f>B8</f>
         <v/>
       </c>
       <c r="N17" s="4" t="n"/>
-      <c r="O17" s="21">
+      <c r="O17" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26"/>
-    <row r="19" ht="14.4" customHeight="1" s="26">
+    <row r="18" ht="14.4" customHeight="1" s="28"/>
+    <row r="19" ht="14.4" customHeight="1" s="28">
       <c r="R19" s="10" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="26">
     <mergeCell ref="R15:T15"/>
@@ -7726,11 +7777,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7745,52 +7796,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Июль</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>пн</t>
@@ -7947,9 +7998,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -8044,13 +8095,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -8089,13 +8140,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="2" t="n">
@@ -8156,13 +8207,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -8211,105 +8262,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="38" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E9" s="40" t="inlineStr">
+      <c r="E9" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M9" s="47" t="inlineStr">
+      <c r="M9" s="49" t="inlineStr">
         <is>
           <t>Итоги (Июль)</t>
         </is>
       </c>
-      <c r="N9" s="22" t="n"/>
-      <c r="O9" s="22" t="n"/>
-      <c r="P9" s="22" t="n"/>
-      <c r="Q9" s="22" t="n"/>
-      <c r="R9" s="22" t="n"/>
-      <c r="S9" s="22" t="n"/>
-      <c r="T9" s="22" t="n"/>
-      <c r="U9" s="22" t="n"/>
-      <c r="V9" s="23" t="n"/>
-    </row>
-    <row r="10" ht="15.6" customHeight="1" s="26">
-      <c r="B10" s="28" t="inlineStr">
+      <c r="N9" s="24" t="n"/>
+      <c r="O9" s="24" t="n"/>
+      <c r="P9" s="24" t="n"/>
+      <c r="Q9" s="24" t="n"/>
+      <c r="R9" s="24" t="n"/>
+      <c r="S9" s="24" t="n"/>
+      <c r="T9" s="24" t="n"/>
+      <c r="U9" s="24" t="n"/>
+      <c r="V9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1" s="28">
+      <c r="B10" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E10" s="27" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M10" s="35" t="inlineStr">
+      <c r="M10" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N10" s="31" t="n"/>
-      <c r="O10" s="29" t="inlineStr">
+      <c r="N10" s="33" t="n"/>
+      <c r="O10" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P10" s="30" t="n"/>
-      <c r="Q10" s="31" t="n"/>
-      <c r="R10" s="29" t="inlineStr">
+      <c r="P10" s="32" t="n"/>
+      <c r="Q10" s="33" t="n"/>
+      <c r="R10" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S10" s="30" t="n"/>
-      <c r="T10" s="31" t="n"/>
-      <c r="U10" s="41" t="inlineStr">
+      <c r="S10" s="32" t="n"/>
+      <c r="T10" s="33" t="n"/>
+      <c r="U10" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V10" s="31" t="n"/>
+      <c r="V10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="25" t="inlineStr">
+      <c r="B11" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M11" s="36" t="n"/>
-      <c r="N11" s="37" t="n"/>
-      <c r="O11" s="32" t="n"/>
-      <c r="P11" s="33" t="n"/>
-      <c r="Q11" s="34" t="n"/>
-      <c r="R11" s="32" t="n"/>
-      <c r="S11" s="33" t="n"/>
-      <c r="T11" s="34" t="n"/>
-      <c r="U11" s="32" t="n"/>
-      <c r="V11" s="34" t="n"/>
+      <c r="M11" s="38" t="n"/>
+      <c r="N11" s="39" t="n"/>
+      <c r="O11" s="34" t="n"/>
+      <c r="P11" s="35" t="n"/>
+      <c r="Q11" s="36" t="n"/>
+      <c r="R11" s="34" t="n"/>
+      <c r="S11" s="35" t="n"/>
+      <c r="T11" s="36" t="n"/>
+      <c r="U11" s="34" t="n"/>
+      <c r="V11" s="36" t="n"/>
       <c r="AA11" s="10" t="n"/>
     </row>
-    <row r="12" ht="15.6" customHeight="1" s="26">
-      <c r="M12" s="32" t="n"/>
-      <c r="N12" s="34" t="n"/>
-      <c r="O12" s="39" t="inlineStr">
+    <row r="12" ht="15.6" customHeight="1" s="28">
+      <c r="M12" s="34" t="n"/>
+      <c r="N12" s="36" t="n"/>
+      <c r="O12" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P12" s="22" t="n"/>
-      <c r="Q12" s="23" t="n"/>
-      <c r="R12" s="45" t="inlineStr">
+      <c r="P12" s="24" t="n"/>
+      <c r="Q12" s="25" t="n"/>
+      <c r="R12" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S12" s="22" t="n"/>
-      <c r="T12" s="23" t="n"/>
+      <c r="S12" s="24" t="n"/>
+      <c r="T12" s="25" t="n"/>
       <c r="U12" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -8321,79 +8372,79 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1" s="26">
+    <row r="13" ht="18" customHeight="1" s="28">
       <c r="M13" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N13" s="4" t="n"/>
-      <c r="O13" s="21">
+      <c r="O13" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="21">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="7" t="n">
         <v>6</v>
       </c>
       <c r="V13" s="8" t="n"/>
     </row>
-    <row r="14" ht="18" customHeight="1" s="26">
+    <row r="14" ht="18" customHeight="1" s="28">
       <c r="M14" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="21">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="12" t="n"/>
       <c r="V14" s="5" t="n"/>
     </row>
-    <row r="15" ht="14.4" customHeight="1" s="26">
+    <row r="15" ht="14.4" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B7</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="5" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="14.4" customHeight="1" s="26"/>
-    <row r="17" ht="14.4" customHeight="1" s="26">
+    <row r="16" ht="14.4" customHeight="1" s="28"/>
+    <row r="17" ht="14.4" customHeight="1" s="28">
       <c r="R17" s="10" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26"/>
-    <row r="19" ht="14.4" customHeight="1" s="26"/>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
+    <row r="18" ht="14.4" customHeight="1" s="28"/>
+    <row r="19" ht="14.4" customHeight="1" s="28"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
     <row r="25">
       <c r="V25" t="inlineStr">
         <is>
@@ -8446,11 +8497,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8465,52 +8516,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>чт</t>
@@ -8667,9 +8718,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -8764,13 +8815,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -8809,13 +8860,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
@@ -8870,13 +8921,13 @@
       </c>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Игорь</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
@@ -8911,13 +8962,13 @@
       <c r="AG7" s="3" t="n"/>
       <c r="AH7" s="3" t="n"/>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -8980,13 +9031,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="24" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Снежанна</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n"/>
+      <c r="C9" s="25" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -9025,105 +9076,105 @@
       <c r="AG9" s="3" t="n"/>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1" s="26">
-      <c r="B11" s="38" t="inlineStr">
+    <row r="11" ht="18" customHeight="1" s="28">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="47" t="inlineStr">
+      <c r="M11" s="49" t="inlineStr">
         <is>
           <t>Итоги (Август)</t>
         </is>
       </c>
-      <c r="N11" s="22" t="n"/>
-      <c r="O11" s="22" t="n"/>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="22" t="n"/>
-      <c r="R11" s="22" t="n"/>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="V11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" s="26">
-      <c r="B12" s="28" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="24" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="24" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="24" t="n"/>
+      <c r="U11" s="24" t="n"/>
+      <c r="V11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" s="28">
+      <c r="B12" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="27" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="35" t="inlineStr">
+      <c r="M12" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="29" t="inlineStr">
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="31" t="n"/>
-      <c r="R12" s="29" t="inlineStr">
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+      <c r="R12" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="30" t="n"/>
-      <c r="T12" s="31" t="n"/>
-      <c r="U12" s="41" t="inlineStr">
+      <c r="S12" s="32" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="31" t="n"/>
+      <c r="V12" s="33" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="25" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="36" t="n"/>
-      <c r="N13" s="37" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="33" t="n"/>
-      <c r="Q13" s="34" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="33" t="n"/>
-      <c r="T13" s="34" t="n"/>
-      <c r="U13" s="32" t="n"/>
-      <c r="V13" s="34" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="39" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="36" t="n"/>
+      <c r="R13" s="34" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="36" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="36" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="26">
-      <c r="M14" s="32" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="39" t="inlineStr">
+    <row r="14" ht="15.6" customHeight="1" s="28">
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="45" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -9135,24 +9186,24 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="7" t="n">
         <v>4</v>
       </c>
@@ -9162,94 +9213,94 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" s="26">
+    <row r="16" ht="18" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="14.4" customHeight="1" s="26">
-      <c r="M17" s="48">
+    <row r="17" ht="14.4" customHeight="1" s="28">
+      <c r="M17" s="50">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="n"/>
-      <c r="O17" s="21">
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26">
-      <c r="M18" s="48">
+    <row r="18" ht="14.4" customHeight="1" s="28">
+      <c r="M18" s="50">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="23" t="n"/>
-      <c r="O18" s="21">
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="21">
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="25" t="n"/>
+      <c r="R18" s="23">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="n"/>
-      <c r="T18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="25" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="26">
-      <c r="M19" s="48">
+    <row r="19" ht="14.4" customHeight="1" s="28">
+      <c r="M19" s="50">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="23" t="n"/>
-      <c r="O19" s="21">
+      <c r="N19" s="25" t="n"/>
+      <c r="O19" s="23">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="21">
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="25" t="n"/>
+      <c r="R19" s="23">
         <f>SUM(S9:AG9)</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="n"/>
-      <c r="T19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="25" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
-    <row r="23" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
+    <row r="23" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
@@ -9304,11 +9355,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9323,51 +9374,51 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Сентябрь</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вс</t>
@@ -9519,9 +9570,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -9613,13 +9664,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -9651,13 +9702,13 @@
       <c r="AF5" s="3" t="n"/>
       <c r="AG5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -9703,13 +9754,13 @@
       <c r="AF6" s="3" t="n"/>
       <c r="AG6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -9783,13 +9834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -9825,105 +9876,105 @@
       </c>
       <c r="AG8" s="3" t="n"/>
     </row>
-    <row r="10" ht="18" customHeight="1" s="26">
-      <c r="B10" s="38" t="inlineStr">
+    <row r="10" ht="18" customHeight="1" s="28">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M10" s="47" t="inlineStr">
+      <c r="M10" s="49" t="inlineStr">
         <is>
           <t>Итоги (Сентябрь)</t>
         </is>
       </c>
-      <c r="N10" s="22" t="n"/>
-      <c r="O10" s="22" t="n"/>
-      <c r="P10" s="22" t="n"/>
-      <c r="Q10" s="22" t="n"/>
-      <c r="R10" s="22" t="n"/>
-      <c r="S10" s="22" t="n"/>
-      <c r="T10" s="22" t="n"/>
-      <c r="U10" s="22" t="n"/>
-      <c r="V10" s="23" t="n"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1" s="26">
-      <c r="B11" s="28" t="inlineStr">
+      <c r="N10" s="24" t="n"/>
+      <c r="O10" s="24" t="n"/>
+      <c r="P10" s="24" t="n"/>
+      <c r="Q10" s="24" t="n"/>
+      <c r="R10" s="24" t="n"/>
+      <c r="S10" s="24" t="n"/>
+      <c r="T10" s="24" t="n"/>
+      <c r="U10" s="24" t="n"/>
+      <c r="V10" s="25" t="n"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" s="28">
+      <c r="B11" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M11" s="35" t="inlineStr">
+      <c r="M11" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N11" s="31" t="n"/>
-      <c r="O11" s="29" t="inlineStr">
+      <c r="N11" s="33" t="n"/>
+      <c r="O11" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P11" s="30" t="n"/>
-      <c r="Q11" s="31" t="n"/>
-      <c r="R11" s="29" t="inlineStr">
+      <c r="P11" s="32" t="n"/>
+      <c r="Q11" s="33" t="n"/>
+      <c r="R11" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S11" s="30" t="n"/>
-      <c r="T11" s="31" t="n"/>
-      <c r="U11" s="41" t="inlineStr">
+      <c r="S11" s="32" t="n"/>
+      <c r="T11" s="33" t="n"/>
+      <c r="U11" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V11" s="31" t="n"/>
+      <c r="V11" s="33" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M12" s="36" t="n"/>
-      <c r="N12" s="37" t="n"/>
-      <c r="O12" s="32" t="n"/>
-      <c r="P12" s="33" t="n"/>
-      <c r="Q12" s="34" t="n"/>
-      <c r="R12" s="32" t="n"/>
-      <c r="S12" s="33" t="n"/>
-      <c r="T12" s="34" t="n"/>
-      <c r="U12" s="32" t="n"/>
-      <c r="V12" s="34" t="n"/>
+      <c r="M12" s="38" t="n"/>
+      <c r="N12" s="39" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="36" t="n"/>
+      <c r="R12" s="34" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="36" t="n"/>
+      <c r="U12" s="34" t="n"/>
+      <c r="V12" s="36" t="n"/>
       <c r="AA12" s="10" t="n"/>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="26">
-      <c r="M13" s="32" t="n"/>
-      <c r="N13" s="34" t="n"/>
-      <c r="O13" s="39" t="inlineStr">
+    <row r="13" ht="15.6" customHeight="1" s="28">
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="36" t="n"/>
+      <c r="O13" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="23" t="n"/>
-      <c r="R13" s="45" t="inlineStr">
+      <c r="P13" s="24" t="n"/>
+      <c r="Q13" s="25" t="n"/>
+      <c r="R13" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S13" s="22" t="n"/>
-      <c r="T13" s="23" t="n"/>
+      <c r="S13" s="24" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -9935,97 +9986,97 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" s="26">
+    <row r="14" ht="18" customHeight="1" s="28">
       <c r="M14" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N14" s="4" t="n"/>
-      <c r="O14" s="21">
+      <c r="O14" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="21">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="23">
         <f>SUM(S5:AG5)</f>
         <v/>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="7" t="n"/>
       <c r="V14" s="8" t="n"/>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S6:AG6)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="12" t="n"/>
       <c r="V15" s="5" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" s="26">
-      <c r="M16" s="48">
+    <row r="16" ht="18" customHeight="1" s="28">
+      <c r="M16" s="50">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N16" s="23" t="n"/>
-      <c r="O16" s="21">
+      <c r="N16" s="25" t="n"/>
+      <c r="O16" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S7:AG7)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="5" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="26">
-      <c r="M17" s="48">
+    <row r="17" ht="18" customHeight="1" s="28">
+      <c r="M17" s="50">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="n"/>
-      <c r="O17" s="21">
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S8:AG8)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="14.4" customHeight="1" s="26"/>
-    <row r="19" ht="14.4" customHeight="1" s="26"/>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
-    <row r="23" ht="14.4" customHeight="1" s="26"/>
-    <row r="24" ht="14.4" customHeight="1" s="26"/>
+    <row r="18" ht="14.4" customHeight="1" s="28"/>
+    <row r="19" ht="14.4" customHeight="1" s="28"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
+    <row r="23" ht="14.4" customHeight="1" s="28"/>
+    <row r="24" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="R15:T15"/>
@@ -10076,11 +10127,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="4.6640625" customWidth="1" style="26" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="26" min="3" max="3"/>
-    <col width="5.6640625" customWidth="1" style="26" min="4" max="6"/>
-    <col width="5.44140625" customWidth="1" style="26" min="7" max="7"/>
-    <col width="5.6640625" customWidth="1" style="26" min="8" max="34"/>
+    <col width="4.6640625" customWidth="1" style="28" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="5.6640625" customWidth="1" style="28" min="4" max="6"/>
+    <col width="5.44140625" customWidth="1" style="28" min="7" max="7"/>
+    <col width="5.6640625" customWidth="1" style="28" min="8" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10095,52 +10146,52 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="26">
-      <c r="B2" s="44" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="28">
+      <c r="B2" s="46" t="inlineStr">
         <is>
           <t>Октябрь</t>
         </is>
       </c>
-      <c r="C2" s="22" t="n"/>
-      <c r="D2" s="22" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="22" t="n"/>
-      <c r="G2" s="22" t="n"/>
-      <c r="H2" s="22" t="n"/>
-      <c r="I2" s="22" t="n"/>
-      <c r="J2" s="22" t="n"/>
-      <c r="K2" s="22" t="n"/>
-      <c r="L2" s="22" t="n"/>
-      <c r="M2" s="22" t="n"/>
-      <c r="N2" s="22" t="n"/>
-      <c r="O2" s="22" t="n"/>
-      <c r="P2" s="22" t="n"/>
-      <c r="Q2" s="22" t="n"/>
-      <c r="R2" s="22" t="n"/>
-      <c r="S2" s="22" t="n"/>
-      <c r="T2" s="22" t="n"/>
-      <c r="U2" s="22" t="n"/>
-      <c r="V2" s="22" t="n"/>
-      <c r="W2" s="22" t="n"/>
-      <c r="X2" s="22" t="n"/>
-      <c r="Y2" s="22" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="22" t="n"/>
-      <c r="AB2" s="22" t="n"/>
-      <c r="AC2" s="22" t="n"/>
-      <c r="AD2" s="22" t="n"/>
-      <c r="AE2" s="22" t="n"/>
-      <c r="AF2" s="22" t="n"/>
-      <c r="AG2" s="22" t="n"/>
-      <c r="AH2" s="23" t="n"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" s="26">
-      <c r="B3" s="42" t="inlineStr">
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
+      <c r="G2" s="24" t="n"/>
+      <c r="H2" s="24" t="n"/>
+      <c r="I2" s="24" t="n"/>
+      <c r="J2" s="24" t="n"/>
+      <c r="K2" s="24" t="n"/>
+      <c r="L2" s="24" t="n"/>
+      <c r="M2" s="24" t="n"/>
+      <c r="N2" s="24" t="n"/>
+      <c r="O2" s="24" t="n"/>
+      <c r="P2" s="24" t="n"/>
+      <c r="Q2" s="24" t="n"/>
+      <c r="R2" s="24" t="n"/>
+      <c r="S2" s="24" t="n"/>
+      <c r="T2" s="24" t="n"/>
+      <c r="U2" s="24" t="n"/>
+      <c r="V2" s="24" t="n"/>
+      <c r="W2" s="24" t="n"/>
+      <c r="X2" s="24" t="n"/>
+      <c r="Y2" s="24" t="n"/>
+      <c r="Z2" s="24" t="n"/>
+      <c r="AA2" s="24" t="n"/>
+      <c r="AB2" s="24" t="n"/>
+      <c r="AC2" s="24" t="n"/>
+      <c r="AD2" s="24" t="n"/>
+      <c r="AE2" s="24" t="n"/>
+      <c r="AF2" s="24" t="n"/>
+      <c r="AG2" s="24" t="n"/>
+      <c r="AH2" s="25" t="n"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="28">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="C3" s="37" t="n"/>
+      <c r="C3" s="39" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>вт</t>
@@ -10297,9 +10348,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" s="26">
-      <c r="B4" s="32" t="n"/>
-      <c r="C4" s="34" t="n"/>
+    <row r="4" ht="18" customHeight="1" s="28">
+      <c r="B4" s="34" t="n"/>
+      <c r="C4" s="36" t="n"/>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
@@ -10394,13 +10445,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" s="26">
-      <c r="B5" s="24" t="inlineStr">
+    <row r="5" ht="18" customHeight="1" s="28">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Кирилл</t>
         </is>
       </c>
-      <c r="C5" s="23" t="n"/>
+      <c r="C5" s="25" t="n"/>
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
@@ -10435,13 +10486,13 @@
       <c r="AG5" s="3" t="n"/>
       <c r="AH5" s="3" t="n"/>
     </row>
-    <row r="6" ht="18" customHeight="1" s="26">
-      <c r="B6" s="24" t="inlineStr">
+    <row r="6" ht="18" customHeight="1" s="28">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Лариса</t>
         </is>
       </c>
-      <c r="C6" s="23" t="n"/>
+      <c r="C6" s="25" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
@@ -10476,13 +10527,13 @@
       <c r="AG6" s="3" t="n"/>
       <c r="AH6" s="3" t="n"/>
     </row>
-    <row r="7" ht="18" customHeight="1" s="26">
-      <c r="B7" s="24" t="inlineStr">
+    <row r="7" ht="18" customHeight="1" s="28">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Алена</t>
         </is>
       </c>
-      <c r="C7" s="23" t="n"/>
+      <c r="C7" s="25" t="n"/>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
@@ -10559,13 +10610,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" s="26">
-      <c r="B8" s="24" t="inlineStr">
+    <row r="8" ht="18" customHeight="1" s="28">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Нурик</t>
         </is>
       </c>
-      <c r="C8" s="23" t="n"/>
+      <c r="C8" s="25" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -10602,13 +10653,13 @@
       <c r="AG8" s="3" t="n"/>
       <c r="AH8" s="3" t="n"/>
     </row>
-    <row r="9" ht="18" customHeight="1" s="26">
-      <c r="B9" s="24" t="inlineStr">
+    <row r="9" ht="18" customHeight="1" s="28">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Ильдар</t>
         </is>
       </c>
-      <c r="C9" s="23" t="n"/>
+      <c r="C9" s="25" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
@@ -10651,105 +10702,105 @@
       </c>
       <c r="AH9" s="3" t="n"/>
     </row>
-    <row r="11" ht="18" customHeight="1" s="26">
-      <c r="B11" s="38" t="inlineStr">
+    <row r="11" ht="18" customHeight="1" s="28">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>работа//смена</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="42" t="inlineStr">
         <is>
           <t>Справочник</t>
         </is>
       </c>
-      <c r="M11" s="47" t="inlineStr">
+      <c r="M11" s="49" t="inlineStr">
         <is>
           <t>Итоги (Октябрь)</t>
         </is>
       </c>
-      <c r="N11" s="22" t="n"/>
-      <c r="O11" s="22" t="n"/>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="22" t="n"/>
-      <c r="R11" s="22" t="n"/>
-      <c r="S11" s="22" t="n"/>
-      <c r="T11" s="22" t="n"/>
-      <c r="U11" s="22" t="n"/>
-      <c r="V11" s="23" t="n"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1" s="26">
-      <c r="B12" s="28" t="inlineStr">
+      <c r="N11" s="24" t="n"/>
+      <c r="O11" s="24" t="n"/>
+      <c r="P11" s="24" t="n"/>
+      <c r="Q11" s="24" t="n"/>
+      <c r="R11" s="24" t="n"/>
+      <c r="S11" s="24" t="n"/>
+      <c r="T11" s="24" t="n"/>
+      <c r="U11" s="24" t="n"/>
+      <c r="V11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" s="28">
+      <c r="B12" s="30" t="inlineStr">
         <is>
           <t>выходной</t>
         </is>
       </c>
-      <c r="E12" s="27" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>Для того чтобы внести изменения в график, пожалуйста используйте копирование и вставку имеющиеся ячеек. Это необходимо для удобного и быстрого подсчета отработанных смен</t>
         </is>
       </c>
-      <c r="M12" s="35" t="inlineStr">
+      <c r="M12" s="37" t="inlineStr">
         <is>
           <t>Сотрудник</t>
         </is>
       </c>
-      <c r="N12" s="31" t="n"/>
-      <c r="O12" s="29" t="inlineStr">
+      <c r="N12" s="33" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
         <is>
           <t>1/2 месяца</t>
         </is>
       </c>
-      <c r="P12" s="30" t="n"/>
-      <c r="Q12" s="31" t="n"/>
-      <c r="R12" s="29" t="inlineStr">
+      <c r="P12" s="32" t="n"/>
+      <c r="Q12" s="33" t="n"/>
+      <c r="R12" s="31" t="inlineStr">
         <is>
           <t>2/2 месяца</t>
         </is>
       </c>
-      <c r="S12" s="30" t="n"/>
-      <c r="T12" s="31" t="n"/>
-      <c r="U12" s="41" t="inlineStr">
+      <c r="S12" s="32" t="n"/>
+      <c r="T12" s="33" t="n"/>
+      <c r="U12" s="43" t="inlineStr">
         <is>
           <t>Подработки/ч</t>
         </is>
       </c>
-      <c r="V12" s="31" t="n"/>
+      <c r="V12" s="33" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="25" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>Инвентаризация</t>
         </is>
       </c>
-      <c r="M13" s="36" t="n"/>
-      <c r="N13" s="37" t="n"/>
-      <c r="O13" s="32" t="n"/>
-      <c r="P13" s="33" t="n"/>
-      <c r="Q13" s="34" t="n"/>
-      <c r="R13" s="32" t="n"/>
-      <c r="S13" s="33" t="n"/>
-      <c r="T13" s="34" t="n"/>
-      <c r="U13" s="32" t="n"/>
-      <c r="V13" s="34" t="n"/>
+      <c r="M13" s="38" t="n"/>
+      <c r="N13" s="39" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="35" t="n"/>
+      <c r="Q13" s="36" t="n"/>
+      <c r="R13" s="34" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="36" t="n"/>
+      <c r="U13" s="34" t="n"/>
+      <c r="V13" s="36" t="n"/>
       <c r="AA13" s="10" t="n"/>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="26">
-      <c r="M14" s="32" t="n"/>
-      <c r="N14" s="34" t="n"/>
-      <c r="O14" s="39" t="inlineStr">
+    <row r="14" ht="15.6" customHeight="1" s="28">
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="41" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="P14" s="22" t="n"/>
-      <c r="Q14" s="23" t="n"/>
-      <c r="R14" s="45" t="inlineStr">
+      <c r="P14" s="24" t="n"/>
+      <c r="Q14" s="25" t="n"/>
+      <c r="R14" s="47" t="inlineStr">
         <is>
           <t>смены</t>
         </is>
       </c>
-      <c r="S14" s="22" t="n"/>
-      <c r="T14" s="23" t="n"/>
+      <c r="S14" s="24" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="11" t="inlineStr">
         <is>
           <t>1/2</t>
@@ -10761,117 +10812,117 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" s="26">
+    <row r="15" ht="18" customHeight="1" s="28">
       <c r="M15" s="4">
         <f>B5</f>
         <v/>
       </c>
       <c r="N15" s="4" t="n"/>
-      <c r="O15" s="21">
+      <c r="O15" s="23">
         <f>SUM(D5:R5)</f>
         <v/>
       </c>
-      <c r="P15" s="22" t="n"/>
-      <c r="Q15" s="23" t="n"/>
-      <c r="R15" s="21">
+      <c r="P15" s="24" t="n"/>
+      <c r="Q15" s="25" t="n"/>
+      <c r="R15" s="23">
         <f>SUM(S5:AH5)</f>
         <v/>
       </c>
-      <c r="S15" s="22" t="n"/>
-      <c r="T15" s="23" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="7" t="n"/>
       <c r="V15" s="8" t="n"/>
     </row>
-    <row r="16" ht="18" customHeight="1" s="26">
+    <row r="16" ht="18" customHeight="1" s="28">
       <c r="M16" s="4">
         <f>B6</f>
         <v/>
       </c>
       <c r="N16" s="4" t="n"/>
-      <c r="O16" s="21">
+      <c r="O16" s="23">
         <f>SUM(D6:R6)</f>
         <v/>
       </c>
-      <c r="P16" s="22" t="n"/>
-      <c r="Q16" s="23" t="n"/>
-      <c r="R16" s="21">
+      <c r="P16" s="24" t="n"/>
+      <c r="Q16" s="25" t="n"/>
+      <c r="R16" s="23">
         <f>SUM(S6:AH6)</f>
         <v/>
       </c>
-      <c r="S16" s="22" t="n"/>
-      <c r="T16" s="23" t="n"/>
+      <c r="S16" s="24" t="n"/>
+      <c r="T16" s="25" t="n"/>
       <c r="U16" s="12" t="n"/>
       <c r="V16" s="5" t="n"/>
     </row>
-    <row r="17" ht="18" customHeight="1" s="26">
-      <c r="M17" s="48">
+    <row r="17" ht="18" customHeight="1" s="28">
+      <c r="M17" s="50">
         <f>B7</f>
         <v/>
       </c>
-      <c r="N17" s="23" t="n"/>
-      <c r="O17" s="21">
+      <c r="N17" s="25" t="n"/>
+      <c r="O17" s="23">
         <f>SUM(D7:R7)</f>
         <v/>
       </c>
-      <c r="P17" s="22" t="n"/>
-      <c r="Q17" s="23" t="n"/>
-      <c r="R17" s="21">
+      <c r="P17" s="24" t="n"/>
+      <c r="Q17" s="25" t="n"/>
+      <c r="R17" s="23">
         <f>SUM(S7:AH7)</f>
         <v/>
       </c>
-      <c r="S17" s="22" t="n"/>
-      <c r="T17" s="23" t="n"/>
+      <c r="S17" s="24" t="n"/>
+      <c r="T17" s="25" t="n"/>
       <c r="U17" s="5" t="n"/>
       <c r="V17" s="5" t="n"/>
     </row>
-    <row r="18" ht="18" customHeight="1" s="26">
-      <c r="M18" s="48">
+    <row r="18" ht="18" customHeight="1" s="28">
+      <c r="M18" s="50">
         <f>B8</f>
         <v/>
       </c>
-      <c r="N18" s="23" t="n"/>
-      <c r="O18" s="21">
+      <c r="N18" s="25" t="n"/>
+      <c r="O18" s="23">
         <f>SUM(D8:R8)</f>
         <v/>
       </c>
-      <c r="P18" s="22" t="n"/>
-      <c r="Q18" s="23" t="n"/>
-      <c r="R18" s="21">
+      <c r="P18" s="24" t="n"/>
+      <c r="Q18" s="25" t="n"/>
+      <c r="R18" s="23">
         <f>SUM(S8:AH8)</f>
         <v/>
       </c>
-      <c r="S18" s="22" t="n"/>
-      <c r="T18" s="23" t="n"/>
+      <c r="S18" s="24" t="n"/>
+      <c r="T18" s="25" t="n"/>
       <c r="U18" s="5" t="n"/>
       <c r="V18" s="5" t="n"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1" s="26">
-      <c r="M19" s="48">
+    <row r="19" ht="14.4" customHeight="1" s="28">
+      <c r="M19" s="50">
         <f>B9</f>
         <v/>
       </c>
-      <c r="N19" s="23" t="n"/>
-      <c r="O19" s="21">
+      <c r="N19" s="25" t="n"/>
+      <c r="O19" s="23">
         <f>SUM(D9:R9)</f>
         <v/>
       </c>
-      <c r="P19" s="22" t="n"/>
-      <c r="Q19" s="23" t="n"/>
-      <c r="R19" s="21">
+      <c r="P19" s="24" t="n"/>
+      <c r="Q19" s="25" t="n"/>
+      <c r="R19" s="23">
         <f>SUM(S9:AH9)</f>
         <v/>
       </c>
-      <c r="S19" s="22" t="n"/>
-      <c r="T19" s="23" t="n"/>
+      <c r="S19" s="24" t="n"/>
+      <c r="T19" s="25" t="n"/>
       <c r="U19" s="5" t="n"/>
       <c r="V19" s="5" t="n"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1" s="26"/>
-    <row r="21" ht="14.4" customHeight="1" s="26"/>
-    <row r="22" ht="14.4" customHeight="1" s="26"/>
-    <row r="23" ht="14.4" customHeight="1" s="26"/>
-    <row r="24" ht="14.4" customHeight="1" s="26"/>
-    <row r="25" ht="14.4" customHeight="1" s="26"/>
+    <row r="20" ht="14.4" customHeight="1" s="28"/>
+    <row r="21" ht="14.4" customHeight="1" s="28"/>
+    <row r="22" ht="14.4" customHeight="1" s="28"/>
+    <row r="23" ht="14.4" customHeight="1" s="28"/>
+    <row r="24" ht="14.4" customHeight="1" s="28"/>
+    <row r="25" ht="14.4" customHeight="1" s="28"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="R15:T15"/>
